--- a/src/main/resources/2021-11-07.xlsx
+++ b/src/main/resources/2021-11-07.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="19820" windowWidth="33600" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="17600" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-11-07" r:id="rId1" sheetId="1"/>
-    <sheet name="工作表1" r:id="rId2" sheetId="2"/>
+    <sheet name="客户" r:id="rId1" sheetId="1"/>
+    <sheet name="商品" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,42 +28,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>姓名</t>
+    <rPh eb="1" sb="0">
+      <t>vtg</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>qk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <rPh eb="1" sb="0">
+      <t>jn</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>ytd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <rPh eb="1" sb="0">
+      <t>f</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>fhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>张三</t>
+    <rPh eb="1" sb="0">
+      <t>xt</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>dg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <rPh eb="1" sb="0">
+      <t>sb</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>lh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <rPh eb="1" sb="0">
+      <t>ggg</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>gg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三的地址</t>
+    <rPh eb="1" sb="0">
+      <t>xta</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>dgr</t>
+    </rPh>
+    <rPh eb="3" sb="2">
+      <t>r</t>
+    </rPh>
+    <rPh eb="4" sb="3">
+      <t>f</t>
+    </rPh>
+    <rPh eb="5" sb="4">
+      <t>fhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四的地址</t>
+    <rPh eb="1" sb="0">
+      <t>sb</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>lh</t>
+    </rPh>
+    <rPh eb="3" sb="2">
+      <t>r</t>
+    </rPh>
+    <rPh eb="4" sb="3">
+      <t>f</t>
+    </rPh>
+    <rPh eb="5" sb="4">
+      <t>fhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五的地址</t>
+    <rPh eb="1" sb="0">
+      <t>ggg</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>gg</t>
+    </rPh>
+    <rPh eb="3" sb="2">
+      <t>r</t>
+    </rPh>
+    <rPh eb="4" sb="3">
+      <t>f</t>
+    </rPh>
+    <rPh eb="5" sb="4">
+      <t>fhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh eb="1" sb="0">
+      <t>qk</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>tqi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <rPh eb="1" sb="0">
+      <t>wwj</t>
+    </rPh>
+    <rPh eb="2" sb="1">
+      <t>stk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豆腐</t>
-  </si>
-  <si>
-    <t>0</t>
+    <rPh eb="1" sb="0">
+      <t>dou'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面筋</t>
+    <rPh eb="1" sb="0">
+      <t>mian'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豆芽</t>
+    <rPh eb="1" sb="0">
+      <t>dou'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>凉皮</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>leilei</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
+    <rPh eb="1" sb="0">
+      <t>liang'pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三2</t>
+  </si>
+  <si>
+    <t>张三搬家了</t>
+  </si>
+  <si>
+    <t>166xxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -73,16 +223,18 @@
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -385,13 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,91 +553,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -494,12 +597,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>3.3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
